--- a/SJTUThesis-master/excel/opensource_contrast.xlsx
+++ b/SJTUThesis-master/excel/opensource_contrast.xlsx
@@ -322,7 +322,7 @@
             <c:v>基准测试</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -331,8 +331,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -341,6 +341,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -395,7 +396,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -404,8 +405,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -414,6 +415,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -468,7 +470,7 @@
             <c:v>dm-cache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -477,8 +479,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -487,6 +489,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -541,7 +544,7 @@
             <c:v>bcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -550,16 +553,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -617,16 +619,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125534320"/>
-        <c:axId val="125534880"/>
+        <c:axId val="124090704"/>
+        <c:axId val="124091264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125534320"/>
+        <c:axId val="124090704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -636,6 +652,114 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124091264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124091264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -664,123 +788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125534880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125534880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>IOPS</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125534320"/>
+        <c:crossAx val="124090704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -793,7 +801,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -830,7 +838,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -888,7 +896,7 @@
             <c:v>基准测试</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -897,8 +905,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -907,6 +915,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -961,7 +970,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -970,8 +979,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -980,6 +989,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1034,7 +1044,7 @@
             <c:v>dm-cache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1043,8 +1053,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1053,6 +1063,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1107,7 +1118,7 @@
             <c:v>bcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1116,16 +1127,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1183,16 +1193,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125539360"/>
-        <c:axId val="126048416"/>
+        <c:axId val="124095744"/>
+        <c:axId val="124096304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125539360"/>
+        <c:axId val="124095744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1202,6 +1226,114 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124096304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124096304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1230,123 +1362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126048416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="126048416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>IOPS</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125539360"/>
+        <c:crossAx val="124095744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1359,7 +1375,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1396,7 +1412,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1454,7 +1470,7 @@
             <c:v>基准测试</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1463,8 +1479,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1473,6 +1489,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1527,7 +1544,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1536,8 +1553,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1546,6 +1563,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1580,7 +1598,7 @@
             <c:v>dm-cache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1589,8 +1607,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1599,6 +1617,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1633,7 +1652,7 @@
             <c:v>bcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1642,16 +1661,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1689,16 +1707,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126134320"/>
-        <c:axId val="126134880"/>
+        <c:axId val="124282672"/>
+        <c:axId val="124283232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126134320"/>
+        <c:axId val="124282672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1708,6 +1740,114 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124283232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124283232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1736,123 +1876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126134880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="126134880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>IOPS</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="126134320"/>
+        <c:crossAx val="124282672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1865,7 +1889,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1902,7 +1926,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1960,7 +1984,7 @@
             <c:v>基准测试</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1969,8 +1993,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1979,6 +2003,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2033,7 +2058,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2042,8 +2067,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2052,6 +2077,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2086,7 +2112,7 @@
             <c:v>dm-cache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2095,8 +2121,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -2105,6 +2131,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2139,7 +2166,7 @@
             <c:v>bcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2148,16 +2175,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2195,16 +2221,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126139360"/>
-        <c:axId val="126139920"/>
+        <c:axId val="124601376"/>
+        <c:axId val="124601936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126139360"/>
+        <c:axId val="124601376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2214,6 +2254,114 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124601936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124601936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IOPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2242,123 +2390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126139920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="126139920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>IOPS</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="126139360"/>
+        <c:crossAx val="124601376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,7 +2403,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2408,7 +2440,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2600,7 +2632,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2611,7 +2643,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2634,18 +2666,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2657,7 +2689,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2665,11 +2697,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2701,35 +2733,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2741,30 +2783,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2786,15 +2832,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2809,15 +2853,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2828,17 +2872,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2847,10 +2890,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2866,21 +2909,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2899,17 +2936,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2918,17 +2954,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2937,17 +2972,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2968,7 +3002,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2976,7 +3010,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2989,6 +3023,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2996,10 +3041,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3020,7 +3065,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3029,14 +3074,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3050,7 +3095,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3066,8 +3111,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3083,6 +3128,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3090,20 +3146,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3114,7 +3164,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3137,18 +3187,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3160,7 +3210,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3168,11 +3218,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3204,35 +3254,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3244,30 +3304,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3289,15 +3353,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3312,15 +3374,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3331,17 +3393,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3350,10 +3411,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3369,21 +3430,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3402,17 +3457,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3421,17 +3475,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3440,17 +3493,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3471,7 +3523,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3479,7 +3531,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3492,6 +3544,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3499,10 +3562,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3523,7 +3586,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3532,14 +3595,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3553,7 +3616,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3569,8 +3632,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3586,6 +3649,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3593,20 +3667,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3617,7 +3685,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3640,18 +3708,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -3663,7 +3731,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3671,11 +3739,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3707,35 +3775,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3747,30 +3825,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3792,15 +3874,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3815,15 +3895,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3834,17 +3914,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3853,10 +3932,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -3872,21 +3951,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3905,17 +3978,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3924,17 +3996,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3943,17 +4014,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3974,7 +4044,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3982,7 +4052,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3995,6 +4065,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4002,10 +4083,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4026,7 +4107,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4035,14 +4116,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4056,7 +4137,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4072,8 +4153,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4089,6 +4170,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4096,20 +4188,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4120,7 +4206,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4143,18 +4229,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -4166,7 +4252,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4174,11 +4260,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4210,35 +4296,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4250,30 +4346,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4295,15 +4395,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4318,15 +4416,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4337,17 +4435,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4356,10 +4453,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -4375,21 +4472,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4408,17 +4499,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4427,17 +4517,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4446,17 +4535,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4477,7 +4565,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4485,7 +4573,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4498,6 +4586,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4505,10 +4604,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4529,7 +4628,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4538,14 +4637,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4559,7 +4658,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4575,8 +4674,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4592,6 +4691,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4599,14 +4709,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5003,8 +5107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/SJTUThesis-master/excel/opensource_contrast.xlsx
+++ b/SJTUThesis-master/excel/opensource_contrast.xlsx
@@ -619,11 +619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124090704"/>
-        <c:axId val="124091264"/>
+        <c:axId val="127099856"/>
+        <c:axId val="127100416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124090704"/>
+        <c:axId val="127099856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +680,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124091264"/>
+        <c:crossAx val="127100416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124091264"/>
+        <c:axId val="127100416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124090704"/>
+        <c:crossAx val="127099856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,11 +1193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124095744"/>
-        <c:axId val="124096304"/>
+        <c:axId val="127324416"/>
+        <c:axId val="127324976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124095744"/>
+        <c:axId val="127324416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1254,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124096304"/>
+        <c:crossAx val="127324976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124096304"/>
+        <c:axId val="127324976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124095744"/>
+        <c:crossAx val="127324416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,11 +1707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124282672"/>
-        <c:axId val="124283232"/>
+        <c:axId val="127298912"/>
+        <c:axId val="128023408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124282672"/>
+        <c:axId val="127298912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124283232"/>
+        <c:crossAx val="128023408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1776,7 +1776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124283232"/>
+        <c:axId val="128023408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124282672"/>
+        <c:crossAx val="127298912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,11 +2221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124601376"/>
-        <c:axId val="124601936"/>
+        <c:axId val="127643072"/>
+        <c:axId val="127643632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124601376"/>
+        <c:axId val="127643072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2282,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124601936"/>
+        <c:crossAx val="127643632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124601936"/>
+        <c:axId val="127643632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124601376"/>
+        <c:crossAx val="127643072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5107,7 +5107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
